--- a/src/analysis_examples/circadb/results_jtk/cosinor_10590918_amotl1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10590918_amotl1_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.1382963627341987, 0.2503396792412856]</t>
+          <t>[0.13715599106676202, 0.2514800509087223]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.152308270555238e-07</v>
+        <v>5.632852564385615e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>4.152308270555238e-07</v>
+        <v>5.632852564385615e-07</v>
       </c>
       <c r="O2" t="n">
         <v>-1.484316048542926</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8113687372049272, -1.1572633598809245]</t>
+          <t>[-1.8239476867688502, -1.1446844103170015]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>5.279788384271455e-09</v>
+        <v>1.004630978407306e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>5.279788384271455e-09</v>
+        <v>1.004630978407306e-08</v>
       </c>
       <c r="S2" t="n">
         <v>0.3274922318576058</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.29250974159177723, 0.36247472212343435]</t>
+          <t>[0.2924856411873432, 0.36249882252786836]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>5.227907907907987</v>
       </c>
       <c r="X2" t="n">
-        <v>4.075995995996054</v>
+        <v>4.03169169169175</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.37981981981992</v>
+        <v>6.424124124124224</v>
       </c>
     </row>
   </sheetData>
